--- a/FIFA Rating/RatingCalculator.xlsx
+++ b/FIFA Rating/RatingCalculator.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenerbahce/Desktop/Egitim/Kodlar/Rating/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenerbahce/Desktop/FIFA Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E7F63-EE48-3440-B455-34A016A07A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365921B4-3392-234E-9075-1E1F4CF1DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" activeTab="1" xr2:uid="{F9060D43-76E0-0447-AEEE-9BB3622F16EB}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{F9060D43-76E0-0447-AEEE-9BB3622F16EB}"/>
   </bookViews>
   <sheets>
     <sheet name="van dijk cb rating" sheetId="3" r:id="rId1"/>
-    <sheet name="Sayfa1" sheetId="4" r:id="rId2"/>
-    <sheet name="rating calculation" sheetId="1" r:id="rId3"/>
+    <sheet name="rating calculation" sheetId="1" r:id="rId2"/>
+    <sheet name="Sayfa1" sheetId="4" r:id="rId3"/>
     <sheet name="metrics" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="158">
   <si>
     <t>ST</t>
   </si>
@@ -453,24 +453,9 @@
     <t>&lt;51</t>
   </si>
   <si>
-    <t>GK Diving 0.24</t>
-  </si>
-  <si>
-    <t>GK Handling 0.22</t>
-  </si>
-  <si>
-    <t>GK Positioning 0.22</t>
-  </si>
-  <si>
-    <t>GK Reflex 0.22</t>
-  </si>
-  <si>
     <t>Reactions 0.06</t>
   </si>
   <si>
-    <t>GK Kicking 0.04</t>
-  </si>
-  <si>
     <t>Interceptions 0.20</t>
   </si>
   <si>
@@ -504,69 +489,12 @@
     <t>Sweeper (SW) </t>
   </si>
   <si>
-    <t>Marking 0.15</t>
-  </si>
-  <si>
-    <t>Standing Tackle 0.15</t>
-  </si>
-  <si>
-    <t>Sliding Tackle 0.15</t>
-  </si>
-  <si>
-    <t>Heading 0.10</t>
-  </si>
-  <si>
-    <t>Strength 0.10</t>
-  </si>
-  <si>
-    <t>Aggression 0.08</t>
-  </si>
-  <si>
-    <t>Interceptions 0.08</t>
-  </si>
-  <si>
-    <t>Short Pass 0.05</t>
-  </si>
-  <si>
-    <t>Ball Control 0.05</t>
-  </si>
-  <si>
-    <t>Reactions 0.05</t>
-  </si>
-  <si>
-    <t>Jumping 0.04</t>
-  </si>
-  <si>
-    <t>Sliding Tackle 0.13</t>
-  </si>
-  <si>
-    <t>Standing Tackle 0.12</t>
-  </si>
-  <si>
-    <t>Interceptions 0.12</t>
-  </si>
-  <si>
-    <t>Marking 0.10</t>
-  </si>
-  <si>
     <t>Stamina 0.08</t>
   </si>
   <si>
     <t>Reactions 0.08</t>
   </si>
   <si>
-    <t>Crossing 0.07</t>
-  </si>
-  <si>
-    <t>Heading 0.07</t>
-  </si>
-  <si>
-    <t>Sprint Speed 0.05</t>
-  </si>
-  <si>
-    <t>Aggression 0.05</t>
-  </si>
-  <si>
     <t>Wing Backs (LWB/RW</t>
   </si>
   <si>
@@ -600,182 +528,20 @@
     <t>Agility 0.03</t>
   </si>
   <si>
-    <t>Short Pass 0.13</t>
-  </si>
-  <si>
-    <t>Interceptions 0.13</t>
-  </si>
-  <si>
-    <t>Long Pass 0.11</t>
-  </si>
-  <si>
-    <t>Standing Tackle 0.10</t>
-  </si>
-  <si>
-    <t>Ball Control 0.09</t>
-  </si>
-  <si>
-    <t>Reactions 0.09</t>
-  </si>
-  <si>
-    <t>Vision 0.08</t>
-  </si>
-  <si>
-    <t>Stamina 0.06</t>
-  </si>
-  <si>
-    <t>Strength 0.06</t>
-  </si>
-  <si>
-    <t>Short Pass 0.15</t>
-  </si>
-  <si>
-    <t>Long Pass 0.13</t>
-  </si>
-  <si>
-    <t>Vision 0.12</t>
-  </si>
-  <si>
-    <t>Dribbling 0.09</t>
-  </si>
-  <si>
-    <t>Attack Positioning 0.08</t>
-  </si>
-  <si>
-    <t>Standing Tackle 0.06</t>
-  </si>
-  <si>
-    <t>Long Shots 0.05</t>
-  </si>
-  <si>
-    <t>Crossing 0.14</t>
-  </si>
-  <si>
-    <t>Dribbling 0.14</t>
-  </si>
-  <si>
-    <t>Short Pass 0.12</t>
-  </si>
-  <si>
-    <t>Ball Control 0.12</t>
-  </si>
-  <si>
-    <t>Long Pass 0.08</t>
-  </si>
-  <si>
-    <t>Reactions 0.07</t>
-  </si>
-  <si>
-    <t>Attack Positioning 0.07</t>
-  </si>
-  <si>
-    <t>Stamina 0.05</t>
-  </si>
-  <si>
-    <t>Acceleration 0.05</t>
-  </si>
-  <si>
-    <t>Short Pass 0.16</t>
-  </si>
-  <si>
-    <t>Vision 0.16</t>
-  </si>
-  <si>
-    <t>Ball Control 0.13</t>
-  </si>
-  <si>
-    <t>Attack Positioning 0.12</t>
-  </si>
-  <si>
-    <t>Dribbling 0.11</t>
-  </si>
-  <si>
-    <t>Long Shots 0.06</t>
-  </si>
-  <si>
-    <t>Finishing 0.05</t>
-  </si>
-  <si>
-    <t>Shot Power 0.05</t>
-  </si>
-  <si>
-    <t>Acceleration 0.04</t>
-  </si>
-  <si>
-    <t>Agility 0.04</t>
-  </si>
-  <si>
-    <t>Crossing 0.16</t>
-  </si>
-  <si>
-    <t>Dribbling 0.16</t>
-  </si>
-  <si>
-    <t>Attack Positioning 0.09</t>
-  </si>
-  <si>
-    <t>Acceleration 0.06</t>
-  </si>
-  <si>
-    <t>Sprint Speed 0.06</t>
-  </si>
-  <si>
-    <t>Agility 0.05</t>
-  </si>
-  <si>
-    <t>Vision 0.05</t>
-  </si>
-  <si>
-    <t>Finishing 0.04</t>
-  </si>
-  <si>
-    <t>Long Shots 0.04</t>
-  </si>
-  <si>
-    <t>Finishing 0.12</t>
-  </si>
-  <si>
-    <t>Ball Control 0.11</t>
-  </si>
-  <si>
-    <t>Shot Power 0.10</t>
-  </si>
-  <si>
-    <t>Long Shots 0.10</t>
-  </si>
-  <si>
-    <t>Reactions 0.10</t>
-  </si>
-  <si>
-    <t>Heading 0.05</t>
-  </si>
-  <si>
-    <t>Finishing 0.20</t>
-  </si>
-  <si>
-    <t>Dribbling 0.08</t>
-  </si>
-  <si>
-    <t>Ball Control 0.08</t>
-  </si>
-  <si>
-    <t>Volleys 0.05</t>
-  </si>
-  <si>
-    <t>Strength 0.03</t>
-  </si>
-  <si>
-    <t>KANAT BEKLER EKLENMELİ</t>
-  </si>
-  <si>
     <t>https://fifaforums.easports.com/en/discussion/277545/how-player-rating-is-calculated-it-is-a-total-mess</t>
+  </si>
+  <si>
+    <t>Referans</t>
+  </si>
+  <si>
+    <t>https://www.goal.com/en/news/fifa-player-ratings-explained-how-are-the-card-number--stats-decided/1hszd2fgr7wgf1n2b2yjdpgynu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -907,6 +673,15 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1106,13 +881,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,63 +1175,65 @@
     <xf numFmtId="1" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="İyi" xfId="2" builtinId="26"/>
+    <cellStyle name="Köprü" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{045195F3-7602-0B44-8802-A3DE3C4D58FD}"/>
     <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
@@ -2510,9 +2288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2550,7 +2328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2656,7 +2434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2798,7 +2576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2808,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CA1022-7264-6748-B57D-425A8B72C448}">
   <dimension ref="A3:R17"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L7"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2836,22 +2614,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="K3" s="107" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="K3" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="Q3" s="104" t="s">
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="Q3" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="104"/>
+      <c r="R3" s="107"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
@@ -2866,10 +2644,10 @@
       <c r="D4" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="109"/>
+      <c r="L4" s="112"/>
       <c r="M4" s="91" t="s">
         <v>103</v>
       </c>
@@ -2897,10 +2675,10 @@
         <f>C5*B5</f>
         <v>13.65</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="111"/>
+      <c r="L5" s="114"/>
       <c r="M5" s="88" t="s">
         <v>115</v>
       </c>
@@ -2928,10 +2706,10 @@
         <f t="shared" ref="D6:D15" si="0">C6*B6</f>
         <v>13.799999999999999</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="115">
         <v>3</v>
       </c>
-      <c r="L6" s="113"/>
+      <c r="L6" s="116"/>
       <c r="M6" s="89" t="s">
         <v>129</v>
       </c>
@@ -2959,10 +2737,10 @@
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="K7" s="112">
+      <c r="K7" s="115">
         <v>3</v>
       </c>
-      <c r="L7" s="113"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="89" t="s">
         <v>128</v>
       </c>
@@ -2990,10 +2768,10 @@
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
-      <c r="K8" s="112">
+      <c r="K8" s="115">
         <v>4</v>
       </c>
-      <c r="L8" s="113"/>
+      <c r="L8" s="116"/>
       <c r="M8" s="89" t="s">
         <v>107</v>
       </c>
@@ -3015,10 +2793,10 @@
         <f t="shared" si="0"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="K9" s="112">
+      <c r="K9" s="115">
         <v>4</v>
       </c>
-      <c r="L9" s="113"/>
+      <c r="L9" s="116"/>
       <c r="M9" s="89" t="s">
         <v>109</v>
       </c>
@@ -3040,10 +2818,10 @@
         <f t="shared" si="0"/>
         <v>6.5600000000000005</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K10" s="108">
         <v>5</v>
       </c>
-      <c r="L10" s="106"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="89" t="s">
         <v>110</v>
       </c>
@@ -3065,10 +2843,10 @@
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="108">
         <v>5</v>
       </c>
-      <c r="L11" s="106"/>
+      <c r="L11" s="109"/>
       <c r="M11" s="89" t="s">
         <v>111</v>
       </c>
@@ -3090,10 +2868,10 @@
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="K12" s="105">
+      <c r="K12" s="108">
         <v>5</v>
       </c>
-      <c r="L12" s="106"/>
+      <c r="L12" s="109"/>
       <c r="M12" s="89" t="s">
         <v>112</v>
       </c>
@@ -3193,2445 +2971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D467D6-56D8-C44A-BE5A-6C2D7084F721}">
-  <dimension ref="A1:K154"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="K2" s="120"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>70</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="1">
-        <f>E3*F3</f>
-        <v>14</v>
-      </c>
-      <c r="H3" s="120" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G14" si="0">E4*F4</f>
-        <v>1.2</v>
-      </c>
-      <c r="H4" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="120" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="120" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="120" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="120" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="120" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="120" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="120" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="E15" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="32">
-        <f>SUM(G3:G14)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="116"/>
-      <c r="G16" s="24">
-        <f>G15</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="K17" s="120"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G19" s="1">
-        <f>E19*F19</f>
-        <v>1.2</v>
-      </c>
-      <c r="H19" s="120" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:G30" si="1">E20*F20</f>
-        <v>1.2</v>
-      </c>
-      <c r="H20" s="120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="120" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="5">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H22" s="120" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="5">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="120" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="121" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="120" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="121" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="120" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="5">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="H26" s="120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="120" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="D28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="120" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
-      <c r="D29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H29" s="120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="D30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H30" s="120" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D31" s="8"/>
-      <c r="E31" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="32">
-        <f>SUM(G19:G30)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E32" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="116"/>
-      <c r="G32" s="24">
-        <f>G31</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="5">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G35" s="1">
-        <f>F35*E35</f>
-        <v>1.6</v>
-      </c>
-      <c r="H35" s="120" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="5">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ref="G36:G46" si="2">F36*E36</f>
-        <v>1.6</v>
-      </c>
-      <c r="H36" s="120" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="120"/>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="5">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-      <c r="H37" s="120" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="5">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="120" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="5">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H39" s="120" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="5">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H40" s="120" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="5">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H41" s="120" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H42" s="120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D43" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="5">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="5">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="120" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="5">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H45" s="120" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="5">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H46" s="120" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E47" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="32">
-        <f>SUM(G35:G46)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E48" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="24">
-        <f>G47</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="5">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G51" s="1">
-        <f>F51*E51</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="H51" s="120" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="5">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" ref="G52:G62" si="3">F52*E52</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="H52" s="120" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="5">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="H53" s="120" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="5">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="H54" s="120" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="5">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="H55" s="120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D56" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="5">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="H56" s="120" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="5">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="3"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H57" s="120" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="5">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="3"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H58" s="120" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="5">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H59" s="120" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D60" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="5">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H60" s="120" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D61" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="5">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H61" s="120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D62" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="5">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="H62" s="120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D63" s="7"/>
-      <c r="E63" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="117"/>
-      <c r="G63" s="32">
-        <f>SUM(G51:G62)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D64" s="8"/>
-      <c r="E64" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="116"/>
-      <c r="G64" s="24">
-        <f>G63</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="120"/>
-      <c r="D67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="5">
-        <v>10</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="G67" s="1">
-        <f>E67*F67</f>
-        <v>1.6</v>
-      </c>
-      <c r="H67" s="120" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="5">
-        <v>10</v>
-      </c>
-      <c r="F68" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" ref="G68:G77" si="4">E68*F68</f>
-        <v>1.6</v>
-      </c>
-      <c r="H68" s="120" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="5">
-        <v>10</v>
-      </c>
-      <c r="F69" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="G69" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-      <c r="H69" s="120" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="5">
-        <v>10</v>
-      </c>
-      <c r="F70" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="H70" s="120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D71" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="5">
-        <v>10</v>
-      </c>
-      <c r="F71" s="14">
-        <v>0.11</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H71" s="120" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D72" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="5">
-        <v>10</v>
-      </c>
-      <c r="F72" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H72" s="120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="5">
-        <v>10</v>
-      </c>
-      <c r="F73" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="H73" s="120" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="5">
-        <v>10</v>
-      </c>
-      <c r="F74" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H74" s="120" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D75" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="5">
-        <v>10</v>
-      </c>
-      <c r="F75" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="G75" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H75" s="120" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D76" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="5">
-        <v>10</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="H76" s="120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D77" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="5">
-        <v>10</v>
-      </c>
-      <c r="F77" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="G77" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="H77" s="120" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E78" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="117"/>
-      <c r="G78" s="32">
-        <f>SUM(G67:G77)</f>
-        <v>10.000000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E79" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="116"/>
-      <c r="G79" s="24">
-        <f>G78</f>
-        <v>10.000000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="120"/>
-      <c r="D81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="5">
-        <v>10</v>
-      </c>
-      <c r="F82" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="G82" s="1">
-        <f>E82*F82</f>
-        <v>1.5</v>
-      </c>
-      <c r="H82" s="120" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="5">
-        <v>10</v>
-      </c>
-      <c r="F83" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G83" s="1">
-        <f t="shared" ref="G83:G92" si="5">E83*F83</f>
-        <v>1.3</v>
-      </c>
-      <c r="H83" s="120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D84" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="5">
-        <v>10</v>
-      </c>
-      <c r="F84" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="H84" s="120" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="5">
-        <v>10</v>
-      </c>
-      <c r="F85" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="120" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D86" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="5">
-        <v>10</v>
-      </c>
-      <c r="F86" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="G86" s="1">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H86" s="120" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D87" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="5">
-        <v>10</v>
-      </c>
-      <c r="F87" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G87" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H87" s="120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D88" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="5">
-        <v>10</v>
-      </c>
-      <c r="F88" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H88" s="120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D89" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="5">
-        <v>10</v>
-      </c>
-      <c r="F89" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G89" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H89" s="120" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D90" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90" s="5">
-        <v>10</v>
-      </c>
-      <c r="F90" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="H90" s="120" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D91" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="5">
-        <v>10</v>
-      </c>
-      <c r="F91" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G91" s="1">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="H91" s="120" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D92" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="5">
-        <v>10</v>
-      </c>
-      <c r="F92" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G92" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="120" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E93" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="117"/>
-      <c r="G93" s="32">
-        <f>SUM(G82:G92)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E94" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="116"/>
-      <c r="G94" s="24">
-        <f>G93</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="120"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D96" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D97" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="5">
-        <v>10</v>
-      </c>
-      <c r="F97" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G97" s="1">
-        <f>F97*E97</f>
-        <v>1.3</v>
-      </c>
-      <c r="H97" s="120" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D98" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="5">
-        <v>10</v>
-      </c>
-      <c r="F98" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G98" s="1">
-        <f t="shared" ref="G98:G107" si="6">F98*E98</f>
-        <v>1.3</v>
-      </c>
-      <c r="H98" s="120" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D99" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" s="5">
-        <v>10</v>
-      </c>
-      <c r="F99" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="G99" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H99" s="120" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D100" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="5">
-        <v>10</v>
-      </c>
-      <c r="F100" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H100" s="120" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D101" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" s="5">
-        <v>10</v>
-      </c>
-      <c r="F101" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H101" s="120" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D102" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="5">
-        <v>10</v>
-      </c>
-      <c r="F102" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H102" s="120" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D103" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="5">
-        <v>10</v>
-      </c>
-      <c r="F103" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H103" s="120" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D104" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="5">
-        <v>10</v>
-      </c>
-      <c r="F104" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="H104" s="120" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D105" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="5">
-        <v>10</v>
-      </c>
-      <c r="F105" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G105" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="H105" s="120" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D106" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" s="5">
-        <v>10</v>
-      </c>
-      <c r="F106" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G106" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="H106" s="120" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D107" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="5">
-        <v>10</v>
-      </c>
-      <c r="F107" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G107" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H107" s="120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E108" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="117"/>
-      <c r="G108" s="32">
-        <f>SUM(G97:G107)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E109" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F109" s="116"/>
-      <c r="G109" s="24">
-        <f>G108</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="120"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D111" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D112" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="5">
-        <v>10</v>
-      </c>
-      <c r="F112" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G112" s="1">
-        <f>E112*F112</f>
-        <v>1.3</v>
-      </c>
-      <c r="H112" s="120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D113" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" s="5">
-        <v>10</v>
-      </c>
-      <c r="F113" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G113" s="1">
-        <f t="shared" ref="G113:G123" si="7">E113*F113</f>
-        <v>1.2</v>
-      </c>
-      <c r="H113" s="120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="5">
-        <v>10</v>
-      </c>
-      <c r="F114" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G114" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="H114" s="120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D115" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="5">
-        <v>10</v>
-      </c>
-      <c r="F115" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G115" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H115" s="120" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D116" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" s="5">
-        <v>10</v>
-      </c>
-      <c r="F116" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G116" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="H116" s="120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D117" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" s="5">
-        <v>10</v>
-      </c>
-      <c r="F117" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G117" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="H117" s="120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D118" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="5">
-        <v>10</v>
-      </c>
-      <c r="F118" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G118" s="1">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H118" s="120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D119" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="5">
-        <v>10</v>
-      </c>
-      <c r="F119" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G119" s="1">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H119" s="120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D120" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="5">
-        <v>10</v>
-      </c>
-      <c r="F120" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G120" s="1">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H120" s="120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D121" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="5">
-        <v>10</v>
-      </c>
-      <c r="F121" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G121" s="1">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
-      </c>
-      <c r="H121" s="120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D122" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" s="5">
-        <v>10</v>
-      </c>
-      <c r="F122" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G122" s="1">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="H122" s="120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D123" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="5">
-        <v>10</v>
-      </c>
-      <c r="F123" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G123" s="1">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="H123" s="120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="120"/>
-      <c r="E124" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="117"/>
-      <c r="G124" s="32">
-        <f>SUM(G112:G123)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E125" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F125" s="116"/>
-      <c r="G125" s="24">
-        <f>G124</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D128" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="5">
-        <v>10</v>
-      </c>
-      <c r="F128" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G128" s="1">
-        <f>F128*E128</f>
-        <v>1.5</v>
-      </c>
-      <c r="H128" s="120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D129" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="5">
-        <v>10</v>
-      </c>
-      <c r="F129" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G129" s="1">
-        <f t="shared" ref="G129:G138" si="8">F129*E129</f>
-        <v>1.5</v>
-      </c>
-      <c r="H129" s="120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D130" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" s="5">
-        <v>10</v>
-      </c>
-      <c r="F130" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G130" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="H130" s="120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D131" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="5">
-        <v>10</v>
-      </c>
-      <c r="F131" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G131" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H131" s="120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D132" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="5">
-        <v>10</v>
-      </c>
-      <c r="F132" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G132" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H132" s="120" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D133" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="5">
-        <v>10</v>
-      </c>
-      <c r="F133" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G133" s="1">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="H133" s="120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D134" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="5">
-        <v>10</v>
-      </c>
-      <c r="F134" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G134" s="1">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="H134" s="120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D135" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" s="5">
-        <v>10</v>
-      </c>
-      <c r="F135" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G135" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H135" s="120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D136" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E136" s="5">
-        <v>10</v>
-      </c>
-      <c r="F136" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G136" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H136" s="120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D137" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="5">
-        <v>10</v>
-      </c>
-      <c r="F137" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G137" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H137" s="120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D138" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E138" s="5">
-        <v>10</v>
-      </c>
-      <c r="F138" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="G138" s="1">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-      <c r="H138" s="120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E139" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="117"/>
-      <c r="G139" s="32">
-        <f>SUM(G128:G138)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E140" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F140" s="116"/>
-      <c r="G140" s="24">
-        <f>G139</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D142" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D143" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="5">
-        <v>10</v>
-      </c>
-      <c r="F143" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="G143" s="1">
-        <f>E143*F143</f>
-        <v>2.4</v>
-      </c>
-      <c r="H143" s="120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D144" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E144" s="5">
-        <v>10</v>
-      </c>
-      <c r="F144" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="G144" s="1">
-        <f t="shared" ref="G144:G148" si="9">E144*F144</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H144" s="120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D145" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E145" s="5">
-        <v>10</v>
-      </c>
-      <c r="F145" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="G145" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H145" s="120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="146" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D146" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E146" s="5">
-        <v>10</v>
-      </c>
-      <c r="F146" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="G146" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H146" s="120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="147" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D147" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="5">
-        <v>10</v>
-      </c>
-      <c r="F147" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G147" s="1">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
-      </c>
-      <c r="H147" s="120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="148" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D148" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E148" s="5">
-        <v>10</v>
-      </c>
-      <c r="F148" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="G148" s="1">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="H148" s="120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E149" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="117"/>
-      <c r="G149" s="32">
-        <f>SUM(G143:G148)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E150" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" s="116"/>
-      <c r="G150" s="24">
-        <f>G149</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G154" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC628D5-C1DB-1F45-BEE0-AB55672B27ED}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D131" sqref="A1:D1048576"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5673,10 +3017,10 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="118"/>
+      <c r="L1" s="119"/>
       <c r="N1" t="s">
         <v>55</v>
       </c>
@@ -5693,11 +3037,11 @@
         <f>D150</f>
         <v>10</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="N2" t="s">
+      <c r="L2" s="122"/>
+      <c r="N2" s="123" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5734,14 +3078,14 @@
         <v>25</v>
       </c>
       <c r="B4" s="5">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3">
         <v>0.12</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D14" si="0">B4*C4</f>
-        <v>1.2</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>4</v>
@@ -5829,10 +3173,10 @@
         <f>D79</f>
         <v>10.000000000000002</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="K7" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="114"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -5937,7 +3281,7 @@
       </c>
       <c r="H11" s="29">
         <f>D16</f>
-        <v>22</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>25</v>
@@ -5965,7 +3309,7 @@
       </c>
       <c r="H12" s="24">
         <f>MAX(H2:H11)</f>
-        <v>22</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>17</v>
@@ -6031,7 +3375,7 @@
       <c r="C15" s="117"/>
       <c r="D15" s="32">
         <f>SUM(D3:D14)</f>
-        <v>22</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="G15" s="27" t="str" cm="1">
         <f t="array" ref="G15:G24">IF(H2:H11=MAX(H2:H11),G2:G11,"")</f>
@@ -6047,22 +3391,22 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="24">
         <f>D15</f>
-        <v>22</v>
+        <v>31.599999999999998</v>
       </c>
       <c r="G16" s="27" t="str">
         <v/>
       </c>
       <c r="H16" s="27"/>
-      <c r="K16" s="114" t="s">
+      <c r="K16" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="114"/>
+      <c r="L16" s="121"/>
       <c r="N16" s="33" t="s">
         <v>62</v>
       </c>
@@ -6297,10 +3641,10 @@
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
-      <c r="K25" s="114" t="s">
+      <c r="K25" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="114"/>
+      <c r="L25" s="121"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -6429,10 +3773,10 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="116"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="24">
         <f>D31</f>
         <v>10</v>
@@ -6456,10 +3800,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="K34" s="114" t="s">
+      <c r="K34" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="114"/>
+      <c r="L34" s="121"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
@@ -6618,10 +3962,10 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="K42" s="119" t="s">
+      <c r="K42" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="L42" s="119"/>
+      <c r="L42" s="120"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
@@ -6725,10 +4069,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="116"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="24">
         <f>D47</f>
         <v>10</v>
@@ -6944,10 +4288,10 @@
     </row>
     <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="24">
         <f>D63</f>
         <v>10</v>
@@ -7150,10 +4494,10 @@
       <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="116" t="s">
+      <c r="B79" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="116"/>
+      <c r="C79" s="118"/>
       <c r="D79" s="24">
         <f>D78</f>
         <v>10.000000000000002</v>
@@ -7354,10 +4698,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="B94" s="116" t="s">
+      <c r="B94" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="116"/>
+      <c r="C94" s="118"/>
       <c r="D94" s="24">
         <f>D93</f>
         <v>10</v>
@@ -7553,10 +4897,10 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="116" t="s">
+      <c r="B109" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="116"/>
+      <c r="C109" s="118"/>
       <c r="D109" s="24">
         <f>D108</f>
         <v>10</v>
@@ -7762,10 +5106,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="116" t="s">
+      <c r="B125" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="116"/>
+      <c r="C125" s="118"/>
       <c r="D125" s="24">
         <f>D124</f>
         <v>10</v>
@@ -7956,10 +5300,10 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B140" s="116" t="s">
+      <c r="B140" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="116"/>
+      <c r="C140" s="118"/>
       <c r="D140" s="24">
         <f>D139</f>
         <v>10</v>
@@ -8075,10 +5419,10 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B150" s="116" t="s">
+      <c r="B150" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C150" s="116"/>
+      <c r="C150" s="118"/>
       <c r="D150" s="24">
         <f>D149</f>
         <v>10</v>
@@ -8098,6 +5442,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="K1:L1"/>
@@ -8114,20 +5469,2232 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{749C8DBD-5260-C94B-9E3B-884F3BAF840C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D467D6-56D8-C44A-BE5A-6C2D7084F721}">
+  <dimension ref="A1:K154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="90.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="K2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="1">
+        <f>E3*F3</f>
+        <v>14</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="K3" s="123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G14" si="0">E4*F4</f>
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="103"/>
+      <c r="K4" s="123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="103"/>
+    </row>
+    <row r="6" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="103"/>
+      <c r="K6" s="104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="103"/>
+      <c r="K7" s="104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="103"/>
+      <c r="K8" s="104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="103"/>
+      <c r="K9" s="104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="K10" s="104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="103"/>
+      <c r="K11" s="104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="103"/>
+      <c r="K12" s="104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="103"/>
+      <c r="K13" s="104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="103"/>
+      <c r="K14" s="104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="E15" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="117"/>
+      <c r="G15" s="32">
+        <f>SUM(G3:G14)</f>
+        <v>22</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="E16" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="118"/>
+      <c r="G16" s="24">
+        <f>G15</f>
+        <v>22</v>
+      </c>
+      <c r="K16" s="104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="K17" s="104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="1">
+        <f>E19*F19</f>
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="103"/>
+      <c r="K19" s="104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G30" si="1">E20*F20</f>
+        <v>1.2</v>
+      </c>
+      <c r="H20" s="103"/>
+      <c r="K20" s="105"/>
+    </row>
+    <row r="21" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H21" s="103"/>
+      <c r="K21" s="104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H22" s="103"/>
+      <c r="K22" s="104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="103"/>
+      <c r="K23" s="104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="103"/>
+      <c r="K24" s="104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="103"/>
+      <c r="K25" s="104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="103"/>
+      <c r="K26" s="104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="103"/>
+      <c r="K27" s="104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="103"/>
+      <c r="K28" s="104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="103"/>
+      <c r="K29" s="104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="103"/>
+      <c r="K30" s="104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D31" s="8"/>
+      <c r="E31" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="117"/>
+      <c r="G31" s="32">
+        <f>SUM(G19:G30)</f>
+        <v>10</v>
+      </c>
+      <c r="K31" s="104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="E32" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="118"/>
+      <c r="G32" s="24">
+        <f>G31</f>
+        <v>10</v>
+      </c>
+      <c r="K32" s="104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G35" s="1">
+        <f>F35*E35</f>
+        <v>1.6</v>
+      </c>
+      <c r="H35" s="103"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ref="G36:G46" si="2">F36*E36</f>
+        <v>1.6</v>
+      </c>
+      <c r="H36" s="103"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="103"/>
+      <c r="D37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="5">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="H37" s="103"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="103"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H39" s="103"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="5">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="H40" s="103"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="H41" s="103"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="H42" s="103"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="5">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="103"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="5">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="103"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H45" s="103"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="5">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H46" s="103"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E47" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="117"/>
+      <c r="G47" s="32">
+        <f>SUM(G35:G46)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E48" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="118"/>
+      <c r="G48" s="24">
+        <f>G47</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <f>F51*E51</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H51" s="103"/>
+    </row>
+    <row r="52" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="5">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" ref="G52:G62" si="3">F52*E52</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H52" s="103"/>
+    </row>
+    <row r="53" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="5">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="H53" s="103"/>
+    </row>
+    <row r="54" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="5">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="H54" s="103"/>
+    </row>
+    <row r="55" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="5">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="H55" s="103"/>
+    </row>
+    <row r="56" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="5">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="H56" s="103"/>
+    </row>
+    <row r="57" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H57" s="103"/>
+    </row>
+    <row r="58" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="5">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H58" s="103"/>
+    </row>
+    <row r="59" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="5">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="103"/>
+    </row>
+    <row r="60" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="5">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="103"/>
+    </row>
+    <row r="61" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="5">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="103"/>
+    </row>
+    <row r="62" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D62" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="5">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="H62" s="103"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D63" s="7"/>
+      <c r="E63" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="117"/>
+      <c r="G63" s="32">
+        <f>SUM(G51:G62)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D64" s="8"/>
+      <c r="E64" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="118"/>
+      <c r="G64" s="24">
+        <f>G63</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="103"/>
+      <c r="D67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="5">
+        <v>10</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="G67" s="1">
+        <f>E67*F67</f>
+        <v>1.6</v>
+      </c>
+      <c r="H67" s="103"/>
+    </row>
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="5">
+        <v>10</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68:G77" si="4">E68*F68</f>
+        <v>1.6</v>
+      </c>
+      <c r="H68" s="103"/>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="5">
+        <v>10</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="H69" s="103"/>
+    </row>
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5">
+        <v>10</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="H70" s="103"/>
+    </row>
+    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="5">
+        <v>10</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H71" s="103"/>
+    </row>
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="5">
+        <v>10</v>
+      </c>
+      <c r="F72" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H72" s="103"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D73" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="5">
+        <v>10</v>
+      </c>
+      <c r="F73" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="H73" s="103"/>
+    </row>
+    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5">
+        <v>10</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="103"/>
+    </row>
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D75" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="5">
+        <v>10</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H75" s="103"/>
+    </row>
+    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D76" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="5">
+        <v>10</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="H76" s="103"/>
+    </row>
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D77" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="5">
+        <v>10</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="H77" s="103"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E78" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="117"/>
+      <c r="G78" s="32">
+        <f>SUM(G67:G77)</f>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E79" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="118"/>
+      <c r="G79" s="24">
+        <f>G78</f>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="103"/>
+      <c r="D81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="5">
+        <v>10</v>
+      </c>
+      <c r="F82" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="G82" s="1">
+        <f>E82*F82</f>
+        <v>1.5</v>
+      </c>
+      <c r="H82" s="103"/>
+    </row>
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="5">
+        <v>10</v>
+      </c>
+      <c r="F83" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" ref="G83:G92" si="5">E83*F83</f>
+        <v>1.3</v>
+      </c>
+      <c r="H83" s="103"/>
+    </row>
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="5">
+        <v>10</v>
+      </c>
+      <c r="F84" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="H84" s="103"/>
+    </row>
+    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="5">
+        <v>10</v>
+      </c>
+      <c r="F85" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="103"/>
+    </row>
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="5">
+        <v>10</v>
+      </c>
+      <c r="F86" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H86" s="103"/>
+    </row>
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="5">
+        <v>10</v>
+      </c>
+      <c r="F87" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="H87" s="103"/>
+    </row>
+    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="5">
+        <v>10</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="H88" s="103"/>
+    </row>
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="5">
+        <v>10</v>
+      </c>
+      <c r="F89" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="H89" s="103"/>
+    </row>
+    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D90" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="5">
+        <v>10</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="H90" s="103"/>
+    </row>
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="5">
+        <v>10</v>
+      </c>
+      <c r="F91" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="H91" s="103"/>
+    </row>
+    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D92" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="5">
+        <v>10</v>
+      </c>
+      <c r="F92" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H92" s="103"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E93" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="117"/>
+      <c r="G93" s="32">
+        <f>SUM(G82:G92)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E94" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="118"/>
+      <c r="G94" s="24">
+        <f>G93</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="103"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D97" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="5">
+        <v>10</v>
+      </c>
+      <c r="F97" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="G97" s="1">
+        <f>F97*E97</f>
+        <v>1.3</v>
+      </c>
+      <c r="H97" s="103"/>
+    </row>
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D98" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="5">
+        <v>10</v>
+      </c>
+      <c r="F98" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" ref="G98:G107" si="6">F98*E98</f>
+        <v>1.3</v>
+      </c>
+      <c r="H98" s="103"/>
+    </row>
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D99" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="5">
+        <v>10</v>
+      </c>
+      <c r="F99" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H99" s="103"/>
+    </row>
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D100" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="5">
+        <v>10</v>
+      </c>
+      <c r="F100" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H100" s="103"/>
+    </row>
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D101" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="5">
+        <v>10</v>
+      </c>
+      <c r="F101" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H101" s="103"/>
+    </row>
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D102" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="5">
+        <v>10</v>
+      </c>
+      <c r="F102" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H102" s="103"/>
+    </row>
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D103" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="5">
+        <v>10</v>
+      </c>
+      <c r="F103" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H103" s="103"/>
+    </row>
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D104" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="5">
+        <v>10</v>
+      </c>
+      <c r="F104" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="H104" s="103"/>
+    </row>
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D105" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="5">
+        <v>10</v>
+      </c>
+      <c r="F105" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="H105" s="103"/>
+    </row>
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D106" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="5">
+        <v>10</v>
+      </c>
+      <c r="F106" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="H106" s="103"/>
+    </row>
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D107" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="5">
+        <v>10</v>
+      </c>
+      <c r="F107" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="103"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E108" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="117"/>
+      <c r="G108" s="32">
+        <f>SUM(G97:G107)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E109" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="118"/>
+      <c r="G109" s="24">
+        <f>G108</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="103"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D112" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="5">
+        <v>10</v>
+      </c>
+      <c r="F112" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="G112" s="1">
+        <f>E112*F112</f>
+        <v>1.3</v>
+      </c>
+      <c r="H112" s="103"/>
+    </row>
+    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D113" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="5">
+        <v>10</v>
+      </c>
+      <c r="F113" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" ref="G113:G123" si="7">E113*F113</f>
+        <v>1.2</v>
+      </c>
+      <c r="H113" s="103"/>
+    </row>
+    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="5">
+        <v>10</v>
+      </c>
+      <c r="F114" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="H114" s="103"/>
+    </row>
+    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D115" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="5">
+        <v>10</v>
+      </c>
+      <c r="F115" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H115" s="103"/>
+    </row>
+    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D116" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="5">
+        <v>10</v>
+      </c>
+      <c r="F116" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="H116" s="103"/>
+    </row>
+    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="5">
+        <v>10</v>
+      </c>
+      <c r="F117" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="H117" s="103"/>
+    </row>
+    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D118" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="5">
+        <v>10</v>
+      </c>
+      <c r="F118" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H118" s="103"/>
+    </row>
+    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="5">
+        <v>10</v>
+      </c>
+      <c r="F119" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H119" s="103"/>
+    </row>
+    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="5">
+        <v>10</v>
+      </c>
+      <c r="F120" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G120" s="1">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H120" s="103"/>
+    </row>
+    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D121" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="5">
+        <v>10</v>
+      </c>
+      <c r="F121" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="G121" s="1">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="H121" s="103"/>
+    </row>
+    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D122" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="5">
+        <v>10</v>
+      </c>
+      <c r="F122" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G122" s="1">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="H122" s="103"/>
+    </row>
+    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D123" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="5">
+        <v>10</v>
+      </c>
+      <c r="F123" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G123" s="1">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="H123" s="103"/>
+    </row>
+    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="103"/>
+      <c r="E124" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="117"/>
+      <c r="G124" s="32">
+        <f>SUM(G112:G123)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E125" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="118"/>
+      <c r="G125" s="24">
+        <f>G124</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D127" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D128" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="5">
+        <v>10</v>
+      </c>
+      <c r="F128" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G128" s="1">
+        <f>F128*E128</f>
+        <v>1.5</v>
+      </c>
+      <c r="H128" s="103"/>
+    </row>
+    <row r="129" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D129" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="5">
+        <v>10</v>
+      </c>
+      <c r="F129" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G129" s="1">
+        <f t="shared" ref="G129:G138" si="8">F129*E129</f>
+        <v>1.5</v>
+      </c>
+      <c r="H129" s="103"/>
+    </row>
+    <row r="130" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D130" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" s="5">
+        <v>10</v>
+      </c>
+      <c r="F130" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="H130" s="103"/>
+    </row>
+    <row r="131" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D131" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="5">
+        <v>10</v>
+      </c>
+      <c r="F131" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H131" s="103"/>
+    </row>
+    <row r="132" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D132" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="5">
+        <v>10</v>
+      </c>
+      <c r="F132" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G132" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H132" s="103"/>
+    </row>
+    <row r="133" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D133" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="5">
+        <v>10</v>
+      </c>
+      <c r="F133" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="H133" s="103"/>
+    </row>
+    <row r="134" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D134" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="5">
+        <v>10</v>
+      </c>
+      <c r="F134" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="H134" s="103"/>
+    </row>
+    <row r="135" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D135" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="5">
+        <v>10</v>
+      </c>
+      <c r="F135" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="H135" s="103"/>
+    </row>
+    <row r="136" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D136" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="5">
+        <v>10</v>
+      </c>
+      <c r="F136" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G136" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="H136" s="103"/>
+    </row>
+    <row r="137" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D137" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="5">
+        <v>10</v>
+      </c>
+      <c r="F137" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="H137" s="103"/>
+    </row>
+    <row r="138" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D138" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="5">
+        <v>10</v>
+      </c>
+      <c r="F138" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="G138" s="1">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="H138" s="103"/>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E139" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="117"/>
+      <c r="G139" s="32">
+        <f>SUM(G128:G138)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E140" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" s="118"/>
+      <c r="G140" s="24">
+        <f>G139</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D142" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D143" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="5">
+        <v>10</v>
+      </c>
+      <c r="F143" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="G143" s="1">
+        <f>E143*F143</f>
+        <v>2.4</v>
+      </c>
+      <c r="H143" s="103"/>
+    </row>
+    <row r="144" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D144" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="5">
+        <v>10</v>
+      </c>
+      <c r="F144" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" ref="G144:G148" si="9">E144*F144</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H144" s="103"/>
+    </row>
+    <row r="145" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D145" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="5">
+        <v>10</v>
+      </c>
+      <c r="F145" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="G145" s="1">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H145" s="103"/>
+    </row>
+    <row r="146" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D146" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E146" s="5">
+        <v>10</v>
+      </c>
+      <c r="F146" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H146" s="103"/>
+    </row>
+    <row r="147" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D147" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="5">
+        <v>10</v>
+      </c>
+      <c r="F147" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="H147" s="103"/>
+    </row>
+    <row r="148" spans="4:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D148" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E148" s="5">
+        <v>10</v>
+      </c>
+      <c r="F148" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="H148" s="103"/>
+    </row>
+    <row r="149" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E149" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="117"/>
+      <c r="G149" s="32">
+        <f>SUM(G143:G148)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E150" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" s="118"/>
+      <c r="G150" s="24">
+        <f>G149</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G154" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{4821C02A-6A36-7241-889F-2CAEE080B01A}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{C3711CEF-F184-CD42-97DA-341D830D0F0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8136,7 +7703,7 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FIFA Rating/RatingCalculator.xlsx
+++ b/FIFA Rating/RatingCalculator.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenerbahce/Desktop/FIFA Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365921B4-3392-234E-9075-1E1F4CF1DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B81F079-E41E-8A4D-9F5A-F6F821DB348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{F9060D43-76E0-0447-AEEE-9BB3622F16EB}"/>
+    <workbookView xWindow="17760" yWindow="760" windowWidth="16800" windowHeight="20140" activeTab="2" xr2:uid="{F9060D43-76E0-0447-AEEE-9BB3622F16EB}"/>
   </bookViews>
   <sheets>
     <sheet name="van dijk cb rating" sheetId="3" r:id="rId1"/>
     <sheet name="rating calculation" sheetId="1" r:id="rId2"/>
-    <sheet name="Sayfa1" sheetId="4" r:id="rId3"/>
-    <sheet name="metrics" sheetId="2" r:id="rId4"/>
+    <sheet name="metrics" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="134">
   <si>
     <t>ST</t>
   </si>
@@ -453,95 +452,23 @@
     <t>&lt;51</t>
   </si>
   <si>
-    <t>Reactions 0.06</t>
-  </si>
-  <si>
-    <t>Interceptions 0.20</t>
-  </si>
-  <si>
-    <t>Standing Tackle 0.14</t>
-  </si>
-  <si>
-    <t>Marking 0.12</t>
-  </si>
-  <si>
-    <t>Sliding Tackle 0.12</t>
-  </si>
-  <si>
-    <t>Heading 0.08</t>
-  </si>
-  <si>
-    <t>Ball Control 0.07</t>
-  </si>
-  <si>
-    <t>Short Pass 0.06</t>
-  </si>
-  <si>
-    <t>Vision 0.06</t>
-  </si>
-  <si>
-    <t>Long Pass 0.05</t>
-  </si>
-  <si>
-    <t>Aggression 0.04</t>
-  </si>
-  <si>
-    <t>Sweeper (SW) </t>
-  </si>
-  <si>
-    <t>Stamina 0.08</t>
-  </si>
-  <si>
-    <t>Reactions 0.08</t>
-  </si>
-  <si>
-    <t>Wing Backs (LWB/RW</t>
-  </si>
-  <si>
-    <t>Standing Tackle 0.11</t>
-  </si>
-  <si>
-    <t>Sliding Tackle 0.10</t>
-  </si>
-  <si>
-    <t>Crossing 0.10</t>
-  </si>
-  <si>
-    <t>Short Pass 0.10</t>
-  </si>
-  <si>
-    <t>Ball Control 0.10</t>
-  </si>
-  <si>
-    <t>Interceptions 0.10</t>
-  </si>
-  <si>
-    <t>Marking 0.09</t>
-  </si>
-  <si>
-    <t>Dribbling 0.07</t>
-  </si>
-  <si>
-    <t>Sprint Speed 0.04</t>
-  </si>
-  <si>
-    <t>Agility 0.03</t>
-  </si>
-  <si>
     <t>https://fifaforums.easports.com/en/discussion/277545/how-player-rating-is-calculated-it-is-a-total-mess</t>
   </si>
   <si>
-    <t>Referans</t>
-  </si>
-  <si>
     <t>https://www.goal.com/en/news/fifa-player-ratings-explained-how-are-the-card-number--stats-decided/1hszd2fgr7wgf1n2b2yjdpgynu</t>
+  </si>
+  <si>
+    <t>RWB/LWB</t>
+  </si>
+  <si>
+    <t>LWB/RWB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,12 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -684,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -886,9 +813,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,9 +897,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,9 +1099,29 @@
     <xf numFmtId="1" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,25 +1155,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="İyi" xfId="2" builtinId="26"/>
@@ -1242,6 +1185,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD1CECE"/>
       <color rgb="FFBDBDFF"/>
     </mruColors>
   </colors>
@@ -2206,16 +2150,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1706563</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1694770</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464255</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1256736</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19844</xdr:rowOff>
+      <xdr:rowOff>192564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2238,8 +2182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17581563" y="615156"/>
-          <a:ext cx="2525995" cy="2070365"/>
+          <a:off x="15217730" y="406400"/>
+          <a:ext cx="2996046" cy="2427764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2251,15 +2195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>602756</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3680</xdr:rowOff>
+      <xdr:colOff>94756</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>56796</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>193504</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1265836</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122384</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2282,6 +2226,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>195988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Resim 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6C3EAE-156D-8331-C40F-837AFE36D58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13177520" y="436880"/>
+          <a:ext cx="1564640" cy="2400708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2586,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CA1022-7264-6748-B57D-425A8B72C448}">
   <dimension ref="A3:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="M1" zoomScale="345" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2614,279 +2602,279 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="K3" s="110" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="K3" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="Q3" s="107" t="s">
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="Q3" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="107"/>
+      <c r="R3" s="112"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="97">
+      <c r="R4" s="96">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="98">
         <v>91</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="91">
         <v>0.15</v>
       </c>
       <c r="D5" s="1">
         <f>C5*B5</f>
         <v>13.65</v>
       </c>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="88" t="s">
+      <c r="L5" s="119"/>
+      <c r="M5" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="N5" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="Q5" s="100" t="s">
+      <c r="Q5" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="R5" s="97">
+      <c r="R5" s="96">
         <v>87.66</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="98">
         <v>92</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="91">
         <v>0.15</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D15" si="0">C6*B6</f>
         <v>13.799999999999999</v>
       </c>
-      <c r="K6" s="115">
+      <c r="K6" s="120">
         <v>3</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="89" t="s">
+      <c r="L6" s="121"/>
+      <c r="M6" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="89" t="s">
+      <c r="N6" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="100" t="s">
+      <c r="Q6" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="R6" s="96" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="98">
         <v>86</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="120">
         <v>3</v>
       </c>
-      <c r="L7" s="116"/>
-      <c r="M7" s="89" t="s">
+      <c r="L7" s="121"/>
+      <c r="M7" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="N7" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="100" t="s">
+      <c r="Q7" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="101">
+      <c r="R7" s="100">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="98">
         <v>86</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="91">
         <v>0.1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
-      <c r="K8" s="115">
+      <c r="K8" s="120">
         <v>4</v>
       </c>
-      <c r="L8" s="116"/>
-      <c r="M8" s="89" t="s">
+      <c r="L8" s="121"/>
+      <c r="M8" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="89" t="s">
+      <c r="N8" s="88" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="98">
         <v>92</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <v>0.1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="K9" s="115">
+      <c r="K9" s="120">
         <v>4</v>
       </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="89" t="s">
+      <c r="L9" s="121"/>
+      <c r="M9" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="89" t="s">
+      <c r="N9" s="88" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="98">
         <v>82</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>0.08</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>6.5600000000000005</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="113">
         <v>5</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="89" t="s">
+      <c r="L10" s="114"/>
+      <c r="M10" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="89" t="s">
+      <c r="N10" s="88" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="98">
         <v>90</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="91">
         <v>0.08</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="K11" s="108">
+      <c r="K11" s="113">
         <v>5</v>
       </c>
-      <c r="L11" s="109"/>
-      <c r="M11" s="89" t="s">
+      <c r="L11" s="114"/>
+      <c r="M11" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="N11" s="89" t="s">
+      <c r="N11" s="88" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="98">
         <v>79</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>0.05</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="113">
         <v>5</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="89" t="s">
+      <c r="L12" s="114"/>
+      <c r="M12" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="89" t="s">
+      <c r="N12" s="88" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="98">
         <v>76</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>0.05</v>
       </c>
       <c r="D13" s="1">
@@ -2895,13 +2883,13 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="98">
         <v>88</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>0.05</v>
       </c>
       <c r="D14" s="1">
@@ -2910,13 +2898,13 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="98">
         <v>90</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="91">
         <v>0.04</v>
       </c>
       <c r="D15" s="1">
@@ -2925,27 +2913,27 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="95">
         <f>SUM(B5:B15)</f>
         <v>952</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C16" s="95">
         <f t="shared" ref="C16:D16" si="1">SUM(C5:C15)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <f t="shared" si="1"/>
         <v>87.660000000000011</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <f>D16</f>
         <v>87.660000000000011</v>
       </c>
@@ -2972,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC628D5-C1DB-1F45-BEE0-AB55672B27ED}">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:S170"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="K1" zoomScale="258" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,7 +2982,7 @@
     <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>102</v>
       </c>
@@ -3017,35 +3005,41 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="N1" t="s">
+      <c r="L1" s="126"/>
+      <c r="N1" s="102" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="29">
-        <f>D150</f>
-        <v>10</v>
-      </c>
-      <c r="K2" s="122" t="s">
+        <f>D166</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="N2" s="123" t="s">
+      <c r="L2" s="123"/>
+      <c r="N2" s="102" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="S2" s="102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -3059,11 +3053,11 @@
         <f>B3*C3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="29">
-        <f>D140</f>
+        <f>D156</f>
         <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -3072,22 +3066,25 @@
       <c r="L3" s="25">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="S3" s="102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="5">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>0.12</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D14" si="0">B4*C4</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="G4" s="34" t="s">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="29">
@@ -3101,7 +3098,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -3115,11 +3112,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>5</v>
+      <c r="G5" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="H5" s="29">
-        <f>D109</f>
+        <f>D141</f>
         <v>10</v>
       </c>
       <c r="K5" s="23" t="s">
@@ -3130,7 +3127,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -3144,15 +3141,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>6</v>
+      <c r="G6" s="33" t="s">
+        <v>5</v>
       </c>
       <c r="H6" s="29">
-        <f>D94</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f>D109</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -3166,19 +3163,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>7</v>
+      <c r="G7" s="33" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="29">
-        <f>D79</f>
-        <v>10.000000000000002</v>
-      </c>
-      <c r="K7" s="121" t="s">
+        <f>D94</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="121"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="122"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -3192,12 +3189,12 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>8</v>
+      <c r="G8" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="H8" s="29">
-        <f>D64</f>
-        <v>10</v>
+        <f>D79</f>
+        <v>13.000000000000002</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
@@ -3206,7 +3203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -3220,11 +3217,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>9</v>
+      <c r="G9" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="29">
-        <f>D48</f>
+        <f>D64</f>
         <v>10</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -3234,7 +3231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -3248,12 +3245,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>10</v>
+      <c r="G10" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="H10" s="29">
-        <f>D32</f>
-        <v>10</v>
+        <f>D48</f>
+        <v>12.4</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>38</v>
@@ -3262,7 +3259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3276,12 +3273,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>0</v>
+      <c r="G11" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="29">
-        <f>D16</f>
-        <v>31.599999999999998</v>
+        <f>D32</f>
+        <v>21.999999999999996</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>25</v>
@@ -3290,7 +3287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -3304,12 +3301,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="24">
-        <f>MAX(H2:H11)</f>
-        <v>31.599999999999998</v>
+      <c r="G12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <f>D16</f>
+        <v>22</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>17</v>
@@ -3318,7 +3315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -3332,12 +3329,12 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="31" t="str">
-        <f>G15&amp;" "&amp;G16&amp;" "&amp;G17&amp;" "&amp;G18&amp;" "&amp;G19&amp;" "&amp;G20&amp;" "&amp;G21&amp;" "&amp;G22&amp;" "&amp;G23&amp;" "&amp;G24</f>
-        <v xml:space="preserve">         ST</v>
+      <c r="G13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="24">
+        <f>MAX(H2:H12)</f>
+        <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>27</v>
@@ -3346,7 +3343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
@@ -3360,6 +3357,13 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
+      <c r="G14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="103" t="str">
+        <f>G15&amp;" "&amp;G16&amp;" "&amp;G17&amp;" "&amp;G18&amp;" "&amp;G19&amp;" "&amp;G20&amp;" "&amp;G21&amp;" "&amp;G22&amp;" "&amp;G23&amp;" "&amp;G24&amp;" "&amp;G25</f>
+        <v xml:space="preserve">         CF ST</v>
+      </c>
       <c r="K14" s="23" t="s">
         <v>52</v>
       </c>
@@ -3368,46 +3372,46 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="117" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="32">
+      <c r="C15" s="125"/>
+      <c r="D15" s="31">
         <f>SUM(D3:D14)</f>
-        <v>31.599999999999998</v>
+        <v>22</v>
       </c>
       <c r="G15" s="27" t="str" cm="1">
-        <f t="array" ref="G15:G24">IF(H2:H11=MAX(H2:H11),G2:G11,"")</f>
+        <f t="array" ref="G15:G25">IF(H2:H12=MAX(H2:H12),G2:G12,"")</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="33"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="32" t="s">
         <v>61</v>
       </c>
       <c r="O15" s="26">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="118" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="24">
         <f>D15</f>
-        <v>31.599999999999998</v>
+        <v>22</v>
       </c>
       <c r="G16" s="27" t="str">
         <v/>
       </c>
-      <c r="H16" s="27"/>
-      <c r="K16" s="121" t="s">
+      <c r="H16" s="33"/>
+      <c r="K16" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="121"/>
-      <c r="N16" s="33" t="s">
+      <c r="L16" s="122"/>
+      <c r="N16" s="32" t="s">
         <v>62</v>
       </c>
       <c r="O16" s="26">
@@ -3419,14 +3423,14 @@
       <c r="G17" s="27" t="str">
         <v/>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="33"/>
       <c r="K17" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="1">
         <v>74</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="32" t="s">
         <v>63</v>
       </c>
       <c r="O17" s="26">
@@ -3441,17 +3445,14 @@
       <c r="G18" s="28" t="str">
         <v/>
       </c>
-      <c r="H18" s="27" t="str" cm="1">
-        <f t="array" ref="H18:H22">CONCATENATE(G15:G19, "" )</f>
-        <v/>
-      </c>
+      <c r="H18" s="33"/>
       <c r="K18" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="1">
         <v>84</v>
       </c>
-      <c r="N18" s="33" t="s">
+      <c r="N18" s="32" t="s">
         <v>64</v>
       </c>
       <c r="O18" s="26">
@@ -3463,28 +3464,26 @@
         <v>13</v>
       </c>
       <c r="B19" s="5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3">
         <v>0.12</v>
       </c>
       <c r="D19" s="1">
         <f>B19*C19</f>
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="G19" s="27" t="str">
         <v/>
       </c>
-      <c r="H19" s="27" t="str">
-        <v/>
-      </c>
+      <c r="H19" s="33"/>
       <c r="K19" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="1">
         <v>53</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="32" t="s">
         <v>65</v>
       </c>
       <c r="O19" s="26">
@@ -3508,16 +3507,14 @@
       <c r="G20" s="27" t="str">
         <v/>
       </c>
-      <c r="H20" s="27" t="str">
-        <v/>
-      </c>
+      <c r="H20" s="33"/>
       <c r="K20" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="1">
         <v>79</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="32" t="s">
         <v>56</v>
       </c>
       <c r="O20" s="26">
@@ -3541,9 +3538,7 @@
       <c r="G21" s="27" t="str">
         <v/>
       </c>
-      <c r="H21" s="27" t="str">
-        <v/>
-      </c>
+      <c r="H21" s="33"/>
       <c r="K21" t="s">
         <v>16</v>
       </c>
@@ -3568,9 +3563,7 @@
       <c r="G22" s="27" t="str">
         <v/>
       </c>
-      <c r="H22" s="27" t="str">
-        <v/>
-      </c>
+      <c r="H22" s="33"/>
       <c r="K22" t="s">
         <v>26</v>
       </c>
@@ -3595,7 +3588,7 @@
       <c r="G23" s="27" t="str">
         <v/>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="23" t="s">
@@ -3621,9 +3614,9 @@
         <v>1</v>
       </c>
       <c r="G24" s="27" t="str">
-        <v>ST</v>
-      </c>
-      <c r="H24" s="27"/>
+        <v>CF</v>
+      </c>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3639,26 +3632,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="K25" s="121" t="s">
+      <c r="G25" s="27" t="str">
+        <v>ST</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="K25" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="121"/>
+      <c r="L25" s="122"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C26" s="3">
         <v>0.06</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -3755,13 +3750,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="32">
+      <c r="C31" s="125"/>
+      <c r="D31" s="31">
         <f>SUM(D19:D30)</f>
-        <v>10</v>
+        <v>21.999999999999996</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -3773,13 +3768,13 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="118"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="24">
         <f>D31</f>
-        <v>10</v>
+        <v>21.999999999999996</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -3800,10 +3795,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="K34" s="121" t="s">
+      <c r="K34" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="121"/>
+      <c r="L34" s="122"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
@@ -3962,10 +3957,10 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="K42" s="120" t="s">
+      <c r="K42" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="L42" s="120"/>
+      <c r="L42" s="127"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
@@ -4014,14 +4009,14 @@
         <v>13</v>
       </c>
       <c r="B45" s="5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3">
         <v>0.04</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>40</v>
@@ -4052,13 +4047,13 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="32">
+      <c r="C47" s="125"/>
+      <c r="D47" s="31">
         <f>SUM(D35:D46)</f>
-        <v>10</v>
+        <v>12.4</v>
       </c>
       <c r="K47" s="23" t="s">
         <v>52</v>
@@ -4069,13 +4064,13 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="118"/>
+      <c r="C48" s="124"/>
       <c r="D48" s="24">
         <f>D47</f>
-        <v>10</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4276,11 +4271,11 @@
     </row>
     <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="32">
+      <c r="C63" s="125"/>
+      <c r="D63" s="31">
         <f>SUM(D51:D62)</f>
         <v>10</v>
       </c>
@@ -4288,10 +4283,10 @@
     </row>
     <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="118"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="24">
         <f>D63</f>
         <v>10</v>
@@ -4424,14 +4419,14 @@
         <v>13</v>
       </c>
       <c r="B74" s="5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C74" s="14">
         <v>0.05</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G74" s="21"/>
     </row>
@@ -4483,24 +4478,24 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="117"/>
-      <c r="D78" s="32">
+      <c r="C78" s="125"/>
+      <c r="D78" s="31">
         <f>SUM(D67:D77)</f>
-        <v>10.000000000000002</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="118" t="s">
+      <c r="B79" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="118"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="24">
         <f>D78</f>
-        <v>10.000000000000002</v>
+        <v>13.000000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -4688,20 +4683,20 @@
       <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="117" t="s">
+      <c r="B93" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="117"/>
-      <c r="D93" s="32">
+      <c r="C93" s="125"/>
+      <c r="D93" s="31">
         <f>SUM(D82:D92)</f>
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="B94" s="118" t="s">
+      <c r="B94" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="118"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="24">
         <f>D93</f>
         <v>10</v>
@@ -4887,20 +4882,20 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B108" s="117" t="s">
+      <c r="B108" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="117"/>
-      <c r="D108" s="32">
+      <c r="C108" s="125"/>
+      <c r="D108" s="31">
         <f>SUM(D97:D107)</f>
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="118" t="s">
+      <c r="B109" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="118"/>
+      <c r="C109" s="124"/>
       <c r="D109" s="24">
         <f>D108</f>
         <v>10</v>
@@ -5096,82 +5091,79 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="117" t="s">
+      <c r="B124" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="117"/>
-      <c r="D124" s="32">
+      <c r="C124" s="125"/>
+      <c r="D124" s="31">
         <f>SUM(D112:D123)</f>
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="118" t="s">
+      <c r="B125" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="118"/>
+      <c r="C125" s="124"/>
       <c r="D125" s="24">
         <f>D124</f>
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D126" s="1"/>
-    </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
-        <v>43</v>
+      <c r="A128" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B128" s="5">
         <v>10</v>
       </c>
       <c r="C128" s="16">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="D128" s="1">
-        <f>C128*B128</f>
-        <v>1.5</v>
+        <f t="shared" ref="D128:D136" si="8">B128*C128</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B129" s="5">
         <v>10</v>
       </c>
       <c r="C129" s="16">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" ref="D129:D138" si="8">C129*B129</f>
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
-        <v>31</v>
+      <c r="A130" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B130" s="5">
         <v>10</v>
       </c>
       <c r="C130" s="16">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="17" t="s">
-        <v>15</v>
+      <c r="A131" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B131" s="5">
         <v>10</v>
@@ -5185,8 +5177,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
-        <v>41</v>
+      <c r="A132" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B132" s="5">
         <v>10</v>
@@ -5200,83 +5192,83 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
-        <v>23</v>
+      <c r="A133" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B133" s="5">
         <v>10</v>
       </c>
       <c r="C133" s="16">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="8"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
-        <v>24</v>
+      <c r="A134" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B134" s="5">
         <v>10</v>
       </c>
       <c r="C134" s="16">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="8"/>
-        <v>0.8</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
-        <v>16</v>
+      <c r="A135" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B135" s="5">
         <v>10</v>
       </c>
       <c r="C135" s="16">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B136" s="5">
         <v>10</v>
       </c>
       <c r="C136" s="16">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
-        <v>22</v>
+      <c r="A137" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B137" s="5">
         <v>10</v>
       </c>
       <c r="C137" s="16">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" ref="D137" si="9">B137*C137</f>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
-        <v>39</v>
+      <c r="A138" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B138" s="5">
         <v>10</v>
@@ -5285,176 +5277,371 @@
         <v>0.04</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="8"/>
+        <f>B138*C138</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B139" s="117" t="s">
+      <c r="A139" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" s="5">
+        <v>10</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" ref="D139" si="10">C139*B139</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="117"/>
-      <c r="D139" s="32">
-        <f>SUM(D128:D138)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B140" s="118" t="s">
+      <c r="C140" s="125"/>
+      <c r="D140" s="31">
+        <f>SUM(D128:D139)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="118"/>
-      <c r="D140" s="24">
-        <f>D139</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D142" s="1"/>
+      <c r="C141" s="124"/>
+      <c r="D141" s="24">
+        <f>D140</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B143" s="5">
-        <v>10</v>
-      </c>
-      <c r="C143" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="D143" s="1">
-        <f>B143*C143</f>
-        <v>2.4</v>
-      </c>
+      <c r="A143" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B144" s="5">
         <v>10</v>
       </c>
       <c r="C144" s="16">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" ref="D144:D148" si="9">B144*C144</f>
-        <v>2.2000000000000002</v>
+        <f>C144*B144</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B145" s="5">
         <v>10</v>
       </c>
       <c r="C145" s="16">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" ref="D145:D154" si="11">C145*B145</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B146" s="5">
         <v>10</v>
       </c>
       <c r="C146" s="16">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="11"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="18" t="s">
-        <v>36</v>
+      <c r="A147" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B147" s="5">
         <v>10</v>
       </c>
       <c r="C147" s="16">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" s="5">
+        <v>10</v>
+      </c>
+      <c r="C148" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="5">
+        <v>10</v>
+      </c>
+      <c r="C149" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="5">
+        <v>10</v>
+      </c>
+      <c r="C150" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="5">
+        <v>10</v>
+      </c>
+      <c r="C151" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B152" s="5">
+        <v>10</v>
+      </c>
+      <c r="C152" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="5">
+        <v>10</v>
+      </c>
+      <c r="C153" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" s="5">
+        <v>10</v>
+      </c>
+      <c r="C154" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="125"/>
+      <c r="D155" s="31">
+        <f>SUM(D144:D154)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="124"/>
+      <c r="D156" s="24">
+        <f>D155</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B159" s="5">
+        <v>10</v>
+      </c>
+      <c r="C159" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="D159" s="1">
+        <f>B159*C159</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B160" s="5">
+        <v>10</v>
+      </c>
+      <c r="C160" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" ref="D160:D164" si="12">B160*C160</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" s="5">
+        <v>10</v>
+      </c>
+      <c r="C161" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="12"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="5">
+        <v>10</v>
+      </c>
+      <c r="C162" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="12"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" s="5">
+        <v>10</v>
+      </c>
+      <c r="C163" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B148" s="5">
-        <v>10</v>
-      </c>
-      <c r="C148" s="16">
+      <c r="B164" s="5">
+        <v>10</v>
+      </c>
+      <c r="C164" s="16">
         <v>0.04</v>
       </c>
-      <c r="D148" s="1">
-        <f t="shared" si="9"/>
+      <c r="D164" s="1">
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B149" s="117" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="117"/>
-      <c r="D149" s="32">
-        <f>SUM(D143:D148)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B150" s="118" t="s">
+      <c r="C165" s="125"/>
+      <c r="D165" s="31">
+        <f>SUM(D159:D164)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C150" s="118"/>
-      <c r="D150" s="24">
-        <f>D149</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D154" s="1"/>
+      <c r="C166" s="124"/>
+      <c r="D166" s="24">
+        <f>D165</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D170" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
+  <mergeCells count="29">
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K34:L34"/>
@@ -5469,2241 +5656,37 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{749C8DBD-5260-C94B-9E3B-884F3BAF840C}"/>
+    <hyperlink ref="N1" r:id="rId2" xr:uid="{E5CB1E89-405A-9A42-81D8-9584E0808EE1}"/>
+    <hyperlink ref="S2" r:id="rId3" xr:uid="{DC4B1546-D72B-9147-B526-40A279368464}"/>
+    <hyperlink ref="S3" r:id="rId4" xr:uid="{A9583FBB-72B8-754C-BB4C-E73B43191014}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D467D6-56D8-C44A-BE5A-6C2D7084F721}">
-  <dimension ref="A1:K154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DD5336-1268-9B4C-A5FA-DD1E83453470}">
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="90.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="K2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>70</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="1">
-        <f>E3*F3</f>
-        <v>14</v>
-      </c>
-      <c r="H3" s="103"/>
-      <c r="K3" s="123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G14" si="0">E4*F4</f>
-        <v>1.2</v>
-      </c>
-      <c r="H4" s="103"/>
-      <c r="K4" s="123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="103"/>
-    </row>
-    <row r="6" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="103"/>
-      <c r="K6" s="104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="103"/>
-      <c r="K7" s="104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="103"/>
-      <c r="K8" s="104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="103"/>
-      <c r="K9" s="104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="103"/>
-      <c r="K10" s="104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="103"/>
-      <c r="K11" s="104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="103"/>
-      <c r="K12" s="104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="103"/>
-      <c r="K13" s="104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="103"/>
-      <c r="K14" s="104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="E15" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="32">
-        <f>SUM(G3:G14)</f>
-        <v>22</v>
-      </c>
-      <c r="K15" s="104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="E16" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="24">
-        <f>G15</f>
-        <v>22</v>
-      </c>
-      <c r="K16" s="104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-      <c r="K17" s="104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G19" s="1">
-        <f>E19*F19</f>
-        <v>1.2</v>
-      </c>
-      <c r="H19" s="103"/>
-      <c r="K19" s="104" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:G30" si="1">E20*F20</f>
-        <v>1.2</v>
-      </c>
-      <c r="H20" s="103"/>
-      <c r="K20" s="105"/>
-    </row>
-    <row r="21" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="103"/>
-      <c r="K21" s="104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="5">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H22" s="103"/>
-      <c r="K22" s="104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="5">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="103"/>
-      <c r="K23" s="104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="103"/>
-      <c r="K24" s="104" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="103"/>
-      <c r="K25" s="104" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="5">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="H26" s="103"/>
-      <c r="K26" s="104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="103"/>
-      <c r="K27" s="104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="103"/>
-      <c r="K28" s="104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H29" s="103"/>
-      <c r="K29" s="104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H30" s="103"/>
-      <c r="K30" s="104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="D31" s="8"/>
-      <c r="E31" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="32">
-        <f>SUM(G19:G30)</f>
-        <v>10</v>
-      </c>
-      <c r="K31" s="104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="E32" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="24">
-        <f>G31</f>
-        <v>10</v>
-      </c>
-      <c r="K32" s="104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="5">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G35" s="1">
-        <f>F35*E35</f>
-        <v>1.6</v>
-      </c>
-      <c r="H35" s="103"/>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="5">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ref="G36:G46" si="2">F36*E36</f>
-        <v>1.6</v>
-      </c>
-      <c r="H36" s="103"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="103"/>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="5">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-      <c r="H37" s="103"/>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="5">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="103"/>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="5">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H39" s="103"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="5">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H40" s="103"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="5">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H41" s="103"/>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H42" s="103"/>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D43" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="5">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="103"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="5">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="103"/>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="5">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H45" s="103"/>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="5">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H46" s="103"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E47" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="32">
-        <f>SUM(G35:G46)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E48" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="118"/>
-      <c r="G48" s="24">
-        <f>G47</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="5">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G51" s="1">
-        <f>F51*E51</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="H51" s="103"/>
-    </row>
-    <row r="52" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="5">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" ref="G52:G62" si="3">F52*E52</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="H52" s="103"/>
-    </row>
-    <row r="53" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="5">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="H53" s="103"/>
-    </row>
-    <row r="54" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="5">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="H54" s="103"/>
-    </row>
-    <row r="55" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="5">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="H55" s="103"/>
-    </row>
-    <row r="56" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D56" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="5">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="H56" s="103"/>
-    </row>
-    <row r="57" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="5">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="3"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H57" s="103"/>
-    </row>
-    <row r="58" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="5">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="3"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H58" s="103"/>
-    </row>
-    <row r="59" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="5">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H59" s="103"/>
-    </row>
-    <row r="60" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D60" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="5">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H60" s="103"/>
-    </row>
-    <row r="61" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D61" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="5">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H61" s="103"/>
-    </row>
-    <row r="62" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D62" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="5">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="H62" s="103"/>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D63" s="7"/>
-      <c r="E63" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="117"/>
-      <c r="G63" s="32">
-        <f>SUM(G51:G62)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D64" s="8"/>
-      <c r="E64" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="118"/>
-      <c r="G64" s="24">
-        <f>G63</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="103"/>
-      <c r="D67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="5">
-        <v>10</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="G67" s="1">
-        <f>E67*F67</f>
-        <v>1.6</v>
-      </c>
-      <c r="H67" s="103"/>
-    </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="5">
-        <v>10</v>
-      </c>
-      <c r="F68" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" ref="G68:G77" si="4">E68*F68</f>
-        <v>1.6</v>
-      </c>
-      <c r="H68" s="103"/>
-    </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="5">
-        <v>10</v>
-      </c>
-      <c r="F69" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="G69" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-      <c r="H69" s="103"/>
-    </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="5">
-        <v>10</v>
-      </c>
-      <c r="F70" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="H70" s="103"/>
-    </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D71" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="5">
-        <v>10</v>
-      </c>
-      <c r="F71" s="14">
-        <v>0.11</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H71" s="103"/>
-    </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D72" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="5">
-        <v>10</v>
-      </c>
-      <c r="F72" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H72" s="103"/>
-    </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="5">
-        <v>10</v>
-      </c>
-      <c r="F73" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="H73" s="103"/>
-    </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="5">
-        <v>10</v>
-      </c>
-      <c r="F74" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H74" s="103"/>
-    </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D75" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="5">
-        <v>10</v>
-      </c>
-      <c r="F75" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="G75" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H75" s="103"/>
-    </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D76" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="5">
-        <v>10</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="H76" s="103"/>
-    </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D77" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="5">
-        <v>10</v>
-      </c>
-      <c r="F77" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="G77" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="H77" s="103"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E78" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="117"/>
-      <c r="G78" s="32">
-        <f>SUM(G67:G77)</f>
-        <v>10.000000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E79" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="118"/>
-      <c r="G79" s="24">
-        <f>G78</f>
-        <v>10.000000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="103"/>
-      <c r="D81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="5">
-        <v>10</v>
-      </c>
-      <c r="F82" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="G82" s="1">
-        <f>E82*F82</f>
-        <v>1.5</v>
-      </c>
-      <c r="H82" s="103"/>
-    </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="5">
-        <v>10</v>
-      </c>
-      <c r="F83" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G83" s="1">
-        <f t="shared" ref="G83:G92" si="5">E83*F83</f>
-        <v>1.3</v>
-      </c>
-      <c r="H83" s="103"/>
-    </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D84" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="5">
-        <v>10</v>
-      </c>
-      <c r="F84" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="H84" s="103"/>
-    </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="5">
-        <v>10</v>
-      </c>
-      <c r="F85" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="103"/>
-    </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D86" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="5">
-        <v>10</v>
-      </c>
-      <c r="F86" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="G86" s="1">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H86" s="103"/>
-    </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D87" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="5">
-        <v>10</v>
-      </c>
-      <c r="F87" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G87" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H87" s="103"/>
-    </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D88" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="5">
-        <v>10</v>
-      </c>
-      <c r="F88" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H88" s="103"/>
-    </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D89" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="5">
-        <v>10</v>
-      </c>
-      <c r="F89" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G89" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H89" s="103"/>
-    </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D90" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90" s="5">
-        <v>10</v>
-      </c>
-      <c r="F90" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="H90" s="103"/>
-    </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D91" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="5">
-        <v>10</v>
-      </c>
-      <c r="F91" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G91" s="1">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="H91" s="103"/>
-    </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D92" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="5">
-        <v>10</v>
-      </c>
-      <c r="F92" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G92" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="103"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E93" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="117"/>
-      <c r="G93" s="32">
-        <f>SUM(G82:G92)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E94" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="118"/>
-      <c r="G94" s="24">
-        <f>G93</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="103"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D96" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D97" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="5">
-        <v>10</v>
-      </c>
-      <c r="F97" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G97" s="1">
-        <f>F97*E97</f>
-        <v>1.3</v>
-      </c>
-      <c r="H97" s="103"/>
-    </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D98" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="5">
-        <v>10</v>
-      </c>
-      <c r="F98" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G98" s="1">
-        <f t="shared" ref="G98:G107" si="6">F98*E98</f>
-        <v>1.3</v>
-      </c>
-      <c r="H98" s="103"/>
-    </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D99" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" s="5">
-        <v>10</v>
-      </c>
-      <c r="F99" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="G99" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H99" s="103"/>
-    </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D100" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="5">
-        <v>10</v>
-      </c>
-      <c r="F100" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H100" s="103"/>
-    </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D101" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" s="5">
-        <v>10</v>
-      </c>
-      <c r="F101" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H101" s="103"/>
-    </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D102" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="5">
-        <v>10</v>
-      </c>
-      <c r="F102" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H102" s="103"/>
-    </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D103" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="5">
-        <v>10</v>
-      </c>
-      <c r="F103" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H103" s="103"/>
-    </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D104" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="5">
-        <v>10</v>
-      </c>
-      <c r="F104" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="H104" s="103"/>
-    </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D105" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="5">
-        <v>10</v>
-      </c>
-      <c r="F105" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G105" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="H105" s="103"/>
-    </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D106" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" s="5">
-        <v>10</v>
-      </c>
-      <c r="F106" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G106" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="H106" s="103"/>
-    </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D107" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="5">
-        <v>10</v>
-      </c>
-      <c r="F107" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G107" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H107" s="103"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E108" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="117"/>
-      <c r="G108" s="32">
-        <f>SUM(G97:G107)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E109" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F109" s="118"/>
-      <c r="G109" s="24">
-        <f>G108</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="103"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D111" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D112" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="5">
-        <v>10</v>
-      </c>
-      <c r="F112" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G112" s="1">
-        <f>E112*F112</f>
-        <v>1.3</v>
-      </c>
-      <c r="H112" s="103"/>
-    </row>
-    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D113" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" s="5">
-        <v>10</v>
-      </c>
-      <c r="F113" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G113" s="1">
-        <f t="shared" ref="G113:G123" si="7">E113*F113</f>
-        <v>1.2</v>
-      </c>
-      <c r="H113" s="103"/>
-    </row>
-    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="5">
-        <v>10</v>
-      </c>
-      <c r="F114" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="G114" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="H114" s="103"/>
-    </row>
-    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D115" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="5">
-        <v>10</v>
-      </c>
-      <c r="F115" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G115" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H115" s="103"/>
-    </row>
-    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D116" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" s="5">
-        <v>10</v>
-      </c>
-      <c r="F116" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G116" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="H116" s="103"/>
-    </row>
-    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D117" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" s="5">
-        <v>10</v>
-      </c>
-      <c r="F117" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G117" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="H117" s="103"/>
-    </row>
-    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D118" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="5">
-        <v>10</v>
-      </c>
-      <c r="F118" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G118" s="1">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H118" s="103"/>
-    </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D119" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="5">
-        <v>10</v>
-      </c>
-      <c r="F119" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G119" s="1">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H119" s="103"/>
-    </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D120" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="5">
-        <v>10</v>
-      </c>
-      <c r="F120" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G120" s="1">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="H120" s="103"/>
-    </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D121" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="5">
-        <v>10</v>
-      </c>
-      <c r="F121" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G121" s="1">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
-      </c>
-      <c r="H121" s="103"/>
-    </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D122" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" s="5">
-        <v>10</v>
-      </c>
-      <c r="F122" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G122" s="1">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="H122" s="103"/>
-    </row>
-    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D123" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="5">
-        <v>10</v>
-      </c>
-      <c r="F123" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G123" s="1">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="H123" s="103"/>
-    </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="103"/>
-      <c r="E124" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="117"/>
-      <c r="G124" s="32">
-        <f>SUM(G112:G123)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E125" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F125" s="118"/>
-      <c r="G125" s="24">
-        <f>G124</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D128" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="5">
-        <v>10</v>
-      </c>
-      <c r="F128" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G128" s="1">
-        <f>F128*E128</f>
-        <v>1.5</v>
-      </c>
-      <c r="H128" s="103"/>
-    </row>
-    <row r="129" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D129" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="5">
-        <v>10</v>
-      </c>
-      <c r="F129" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G129" s="1">
-        <f t="shared" ref="G129:G138" si="8">F129*E129</f>
-        <v>1.5</v>
-      </c>
-      <c r="H129" s="103"/>
-    </row>
-    <row r="130" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D130" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" s="5">
-        <v>10</v>
-      </c>
-      <c r="F130" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G130" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="H130" s="103"/>
-    </row>
-    <row r="131" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D131" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="5">
-        <v>10</v>
-      </c>
-      <c r="F131" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G131" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H131" s="103"/>
-    </row>
-    <row r="132" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D132" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="5">
-        <v>10</v>
-      </c>
-      <c r="F132" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G132" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H132" s="103"/>
-    </row>
-    <row r="133" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D133" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="5">
-        <v>10</v>
-      </c>
-      <c r="F133" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G133" s="1">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="H133" s="103"/>
-    </row>
-    <row r="134" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D134" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="5">
-        <v>10</v>
-      </c>
-      <c r="F134" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="G134" s="1">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="H134" s="103"/>
-    </row>
-    <row r="135" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D135" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" s="5">
-        <v>10</v>
-      </c>
-      <c r="F135" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G135" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H135" s="103"/>
-    </row>
-    <row r="136" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D136" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E136" s="5">
-        <v>10</v>
-      </c>
-      <c r="F136" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G136" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H136" s="103"/>
-    </row>
-    <row r="137" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D137" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="5">
-        <v>10</v>
-      </c>
-      <c r="F137" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G137" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H137" s="103"/>
-    </row>
-    <row r="138" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D138" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E138" s="5">
-        <v>10</v>
-      </c>
-      <c r="F138" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="G138" s="1">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
-      <c r="H138" s="103"/>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E139" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="117"/>
-      <c r="G139" s="32">
-        <f>SUM(G128:G138)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E140" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F140" s="118"/>
-      <c r="G140" s="24">
-        <f>G139</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D142" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D143" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="5">
-        <v>10</v>
-      </c>
-      <c r="F143" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="G143" s="1">
-        <f>E143*F143</f>
-        <v>2.4</v>
-      </c>
-      <c r="H143" s="103"/>
-    </row>
-    <row r="144" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D144" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E144" s="5">
-        <v>10</v>
-      </c>
-      <c r="F144" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="G144" s="1">
-        <f t="shared" ref="G144:G148" si="9">E144*F144</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H144" s="103"/>
-    </row>
-    <row r="145" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D145" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E145" s="5">
-        <v>10</v>
-      </c>
-      <c r="F145" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="G145" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H145" s="103"/>
-    </row>
-    <row r="146" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D146" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E146" s="5">
-        <v>10</v>
-      </c>
-      <c r="F146" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="G146" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H146" s="103"/>
-    </row>
-    <row r="147" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D147" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="5">
-        <v>10</v>
-      </c>
-      <c r="F147" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="G147" s="1">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
-      </c>
-      <c r="H147" s="103"/>
-    </row>
-    <row r="148" spans="4:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D148" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E148" s="5">
-        <v>10</v>
-      </c>
-      <c r="F148" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="G148" s="1">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="H148" s="103"/>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E149" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="117"/>
-      <c r="G149" s="32">
-        <f>SUM(G143:G148)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E150" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" s="118"/>
-      <c r="G150" s="24">
-        <f>G149</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G154" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{4821C02A-6A36-7241-889F-2CAEE080B01A}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{C3711CEF-F184-CD42-97DA-341D830D0F0A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DD5336-1268-9B4C-A5FA-DD1E83453470}">
-  <dimension ref="A1:D111"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" zoomScale="371" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7715,10 +5698,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="30" t="s">
@@ -7729,1542 +5712,1710 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="81">
         <v>0.2</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="81">
         <v>0.12</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="81">
         <v>0.1</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="82" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="81">
         <v>0.1</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="81">
         <v>0.1</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="82" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="81">
         <v>0.08</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <v>0.08</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="81">
         <v>0.05</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="82" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <v>0.05</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="81">
         <v>0.05</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="81">
         <v>0.04</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="85">
         <v>0.03</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="82" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="75">
         <v>0.12</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="77" t="s">
+      <c r="A15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="75">
         <v>0.12</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="75">
         <v>0.11</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="77" t="s">
+      <c r="A17" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="75">
         <v>0.11</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="77" t="s">
+      <c r="A18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="75">
         <v>0.1</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="77" t="s">
+      <c r="A19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="75">
         <v>0.1</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="75">
         <v>0.1</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="79" t="s">
+      <c r="A21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="75">
         <v>0.06</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="77" t="s">
+      <c r="A22" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>0.05</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="75">
         <v>0.05</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="75">
         <v>0.04</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="77" t="s">
+      <c r="A25" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="75">
         <v>0.04</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="71">
         <v>0.16</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="71">
         <v>0.16</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="71">
         <v>0.13</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="72">
         <v>0.1</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="71">
         <v>0.09</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="71">
         <v>0.06</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="49" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="71">
         <v>0.06</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="71">
         <v>0.06</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="71">
         <v>0.05</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="49" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="71">
         <v>0.05</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="71">
         <v>0.04</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="71">
         <v>0.04</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="66">
         <v>0.12</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="67" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="66">
         <v>0.12</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="67" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="66">
         <v>0.08</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="67" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="66">
         <v>0.08</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="67" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="67" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="66">
         <v>0.05</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="67" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="66">
         <v>0.05</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="67" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="66">
         <v>0.05</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="67" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="66">
         <v>0.03</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="67" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="62">
         <v>0.16</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="62">
         <v>0.16</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="62">
         <v>0.13</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="63">
         <v>0.12</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="63">
         <v>0.11</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="62">
         <v>0.08</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="49" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="62">
         <v>0.06</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="63">
         <v>0.05</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="63">
         <v>0.05</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="63">
         <v>0.04</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="63">
         <v>0.04</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="49" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="60">
+      <c r="C61" s="59">
         <v>0.15</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="43" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="42">
         <v>0.13</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="42">
         <v>0.12</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="43" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="42">
         <v>0.1</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="43" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="42">
         <v>0.09</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="42">
         <v>0.08</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="42">
         <v>0.08</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="42">
         <v>0.08</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="43" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="42">
         <v>0.06</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="43" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="42">
         <v>0.06</v>
       </c>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="43" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="42">
         <v>0.05</v>
       </c>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="55">
+      <c r="C72" s="54">
         <v>0.13</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73" s="54">
         <v>0.13</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="54">
         <v>0.11</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="55" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="54">
         <v>0.1</v>
       </c>
-      <c r="D75" s="56" t="s">
+      <c r="D75" s="55" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="54">
         <v>0.1</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="55" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="54">
         <v>0.09</v>
       </c>
-      <c r="D77" s="56" t="s">
+      <c r="D77" s="55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78" s="54">
         <v>0.09</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D78" s="55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="54">
         <v>0.08</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D79" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <v>0.06</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="55" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81" s="54">
         <v>0.06</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D81" s="55" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="54">
         <v>0.05</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="49">
+      <c r="C83" s="48">
         <v>0.13</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="49">
+      <c r="C84" s="48">
         <v>0.12</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="49">
+      <c r="C85" s="48">
         <v>0.12</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="49">
+      <c r="C86" s="48">
         <v>0.1</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="49">
+      <c r="C87" s="48">
         <v>0.08</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="49" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C88" s="48">
         <v>0.08</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="49" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="49">
+      <c r="C89" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="49">
+      <c r="C90" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="49">
+      <c r="C91" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="49">
+      <c r="C92" s="48">
         <v>0.06</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="49">
+      <c r="C93" s="48">
         <v>0.05</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="48">
         <v>0.05</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="106">
+        <v>0.11</v>
+      </c>
+      <c r="D95" s="107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="D96" s="107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="D97" s="107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="D98" s="107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="D99" s="107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="D100" s="107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="106">
+        <v>0.09</v>
+      </c>
+      <c r="D101" s="107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="106">
+        <v>0.08</v>
+      </c>
+      <c r="D102" s="107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="106">
+        <v>0.08</v>
+      </c>
+      <c r="D103" s="107" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D104" s="107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="106">
+        <v>0.04</v>
+      </c>
+      <c r="D105" s="107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="110">
+        <v>0.03</v>
+      </c>
+      <c r="D106" s="107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="42" t="s">
+      <c r="B107" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C107" s="42">
         <v>0.15</v>
       </c>
-      <c r="D95" s="44" t="s">
+      <c r="D107" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="41" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B108" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C108" s="42">
         <v>0.15</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D108" s="43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="41" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B109" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="43">
+      <c r="C109" s="42">
         <v>0.15</v>
       </c>
-      <c r="D97" s="44" t="s">
+      <c r="D109" s="43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="41" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B110" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="43">
+      <c r="C110" s="42">
         <v>0.1</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D110" s="43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="41" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="42" t="s">
+      <c r="B111" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="43">
+      <c r="C111" s="42">
         <v>0.1</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D111" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="41" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B112" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="43">
+      <c r="C112" s="42">
         <v>0.08</v>
       </c>
-      <c r="D100" s="44" t="s">
+      <c r="D112" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="41" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="42" t="s">
+      <c r="B113" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="43">
+      <c r="C113" s="42">
         <v>0.08</v>
       </c>
-      <c r="D101" s="44" t="s">
+      <c r="D113" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="41" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="42" t="s">
+      <c r="B114" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="43">
+      <c r="C114" s="42">
         <v>0.05</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D114" s="43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="41" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B115" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="43">
+      <c r="C115" s="42">
         <v>0.05</v>
       </c>
-      <c r="D103" s="44" t="s">
+      <c r="D115" s="43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="41" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B116" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C104" s="43">
+      <c r="C116" s="42">
         <v>0.05</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D116" s="43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="41" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B117" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="43">
+      <c r="C117" s="42">
         <v>0.04</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="D117" s="43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="36" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B118" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="38">
+      <c r="C118" s="37">
         <v>0.24</v>
       </c>
-      <c r="D106" s="39" t="s">
+      <c r="D118" s="38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="36" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B119" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="38">
+      <c r="C119" s="37">
         <v>0.22</v>
       </c>
-      <c r="D107" s="39" t="s">
+      <c r="D119" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="36" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B120" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="38">
+      <c r="C120" s="37">
         <v>0.22</v>
       </c>
-      <c r="D108" s="39" t="s">
+      <c r="D120" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="36" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B121" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="38">
+      <c r="C121" s="37">
         <v>0.22</v>
       </c>
-      <c r="D109" s="39" t="s">
+      <c r="D121" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="36" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B122" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="38">
+      <c r="C122" s="37">
         <v>0.06</v>
       </c>
-      <c r="D110" s="39" t="s">
+      <c r="D122" s="38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="36" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B111" s="37" t="s">
+      <c r="B123" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="38">
+      <c r="C123" s="37">
         <v>0.04</v>
       </c>
-      <c r="D111" s="39" t="s">
+      <c r="D123" s="38" t="s">
         <v>95</v>
       </c>
     </row>
